--- a/Project1.xlsx
+++ b/Project1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sumailsyr-my.sharepoint.com/personal/crfloren_syr_edu/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D45FBF2-3EC9-4CCA-8927-90895C7875A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE0942D1-DE3C-4FAB-9739-5A840872953D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{56F44539-7065-42CD-9C6B-A4A9649F9920}"/>
   </bookViews>
@@ -89,7 +89,7 @@
     <t>\n</t>
   </si>
   <si>
-    <t>(space)</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>01110</t>
@@ -654,7 +654,7 @@
   <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1641,12 +1641,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100150BA542C0A76049BDCF9D9B33733473" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="93ef38e991c303a9ac7df503bb4bfede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3359474e-1eb2-4efd-b06d-808658296785" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5dc445deab565b1306aa7cfa3817311c" ns3:_="">
     <xsd:import namespace="3359474e-1eb2-4efd-b06d-808658296785"/>
@@ -1810,14 +1804,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BD4BB07-9BEA-4759-970C-3EEA6C10E880}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C793520-8406-46D0-B0CA-A900F4A97A42}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949A3CF7-13E1-4490-A100-3CC2BA236FEC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{949A3CF7-13E1-4490-A100-3CC2BA236FEC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C793520-8406-46D0-B0CA-A900F4A97A42}"/>
 </file>